--- a/utils/trunk/general/CMS Funding agencies.xlsx
+++ b/utils/trunk/general/CMS Funding agencies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="201">
   <si>
     <t>http://dx.doi.org/10.13039/501100002428</t>
   </si>
@@ -615,6 +615,18 @@
   </si>
   <si>
     <t>Universität Zürich</t>
+  </si>
+  <si>
+    <t>Welch Foundation</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100000928</t>
+  </si>
+  <si>
+    <t>Rachadapisek Sompot Fund for Postdoctoral Fellowship, Chulalongkorn University (Thailand)</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100002873</t>
   </si>
 </sst>
 </file>
@@ -831,8 +843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F93" totalsRowShown="0">
-  <autoFilter ref="A1:F93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F95" totalsRowShown="0">
+  <autoFilter ref="A1:F95"/>
   <tableColumns count="6">
     <tableColumn id="7" name="List order"/>
     <tableColumn id="1" name="Name"/>
@@ -1108,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2549,6 +2561,34 @@
         <v>139</v>
       </c>
       <c r="E93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" t="s">
         <v>148</v>
       </c>
     </row>

--- a/utils/trunk/general/CMS Funding agencies.xlsx
+++ b/utils/trunk/general/CMS Funding agencies.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\CMS\PubCom\Publications Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tdr2\utils\trunk\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11988" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Funding IDs" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="297">
   <si>
     <t>http://dx.doi.org/10.13039/501100002428</t>
   </si>
@@ -92,12 +92,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>Institut National de Physique Nucléaire et de Physiqe des Particules/CNRS</t>
-  </si>
-  <si>
-    <t>Commissariat à l'Énergie Atomique et aux Énergies Alternatives / CEA</t>
-  </si>
-  <si>
     <t>http://dx.doi.org/10.13039/501100001807</t>
   </si>
   <si>
@@ -134,21 +128,9 @@
     <t>Ministry of Education, Youth and Sports (MEYS) of the Czech Republic</t>
   </si>
   <si>
-    <t>Council of Science and Industrial Research, India</t>
-  </si>
-  <si>
     <t>HOMING PLUS programme of Foundation for Polish Science, cofinanced from European Union, Regional Development Fund</t>
   </si>
   <si>
-    <t>Compagnia di San Paolo (Torino)</t>
-  </si>
-  <si>
-    <t>Consorzio per la Fisica (Trieste)</t>
-  </si>
-  <si>
-    <t>MIUR project 20108T4XTM (Italy)</t>
-  </si>
-  <si>
     <t>Thalis and Aristeia programmes cofinanced by EU-ESF and the Greek NSRF</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>Research Promotion Foundation</t>
   </si>
   <si>
-    <t xml:space="preserve">Ministry of Education and Research, Estonian Research Council via IUT23-4 and IUT23-6 </t>
-  </si>
-  <si>
     <t xml:space="preserve">European Regional Development Fund </t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>Department of Science and Technology</t>
   </si>
   <si>
-    <t>Institute for Studies in Theoretical Physics and Mathematics</t>
-  </si>
-  <si>
     <t>Science Foundation</t>
   </si>
   <si>
@@ -239,9 +215,6 @@
     <t>Ministry of Education</t>
   </si>
   <si>
-    <t>University of Malayam</t>
-  </si>
-  <si>
     <t>Pakistan Atomic Energy Commission</t>
   </si>
   <si>
@@ -374,266 +347,581 @@
     <t>http://dx.doi.org/10.13039/501100004564</t>
   </si>
   <si>
+    <t>Secretaría de Estado de Investigación, Desarrollo e Innovación</t>
+  </si>
+  <si>
+    <t>ETH Board</t>
+  </si>
+  <si>
+    <t>ETH Zurich</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>SNF</t>
+  </si>
+  <si>
+    <t>UniZH</t>
+  </si>
+  <si>
+    <t>Canton Zurich</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100003006</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100004742</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100000271</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100000015</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100000781</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100004117</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100000879</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100005156</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100003134</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100003132</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100001870</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100004895</t>
+  </si>
+  <si>
+    <t>National Priorities Research Program by Qatar National Research Fund</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>?Ministry of Higher Education, Malaysia</t>
+  </si>
+  <si>
+    <t>?Alexander von Humboldt-Stiftung</t>
+  </si>
+  <si>
+    <t>European Social Fund doi only</t>
+  </si>
+  <si>
+    <t>Individual support</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>List order</t>
+  </si>
+  <si>
+    <t>ERC doi only</t>
+  </si>
+  <si>
+    <t>Conselho Nacional de Desenvolvimento Cientifico e Tecnelógica</t>
+  </si>
+  <si>
+    <t>Fundação de Amparo à Pesquisa do Estado de São Paulo</t>
+  </si>
+  <si>
+    <t>Fundação de Amparo à Pesquisa do Estado de Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Departamento Administriva de Ciencia, Tecnología e Innovación</t>
+  </si>
+  <si>
+    <t>Consejo Nacional de Ciencia y Tecnología</t>
+  </si>
+  <si>
+    <t>Centro de Investigación y de Estudios Avanzados del Instituto Politécnico Nacional</t>
+  </si>
+  <si>
+    <t>Secretaría de Educación Pública</t>
+  </si>
+  <si>
+    <t>Universidad Autónoma de San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Joint Institute for Nuclear Research</t>
+  </si>
+  <si>
+    <t>Eidgenössische Technische Hochschule (ETH) Zürich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Scherrer Institut </t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100001711</t>
+  </si>
+  <si>
+    <t>State Secretariat for  Education and Research (Education, Research, and Innovation: SERI)</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100000001</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100003725</t>
+  </si>
+  <si>
+    <t>National Research Foundation of Korea (NRF)</t>
+  </si>
+  <si>
+    <t>previously listed was WCU (World Class University)</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100002855</t>
+  </si>
+  <si>
+    <t>Universität Zürich</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100000928</t>
+  </si>
+  <si>
+    <t>Rachadapisek Sompot Fund for Postdoctoral Fellowship, Chulalongkorn University (Thailand)</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100002873</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100002367</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100001810</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100002341</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100006489</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100003448</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100005324</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100004219</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100008982</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100002322</t>
+  </si>
+  <si>
+    <t>Coordenação de Aperfeiçoamento de Pessoal de Nível Superior</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100004007</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100004569</t>
+  </si>
+  <si>
+    <t>Narodowe Centrum Nauki</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100001871</t>
+  </si>
+  <si>
+    <t>Swiss National Science Foundation (Schweizerischer Nationalfonds zur Förderung der Wissenschaftlichen Forschung)</t>
+  </si>
+  <si>
+    <t>CUAASC</t>
+  </si>
+  <si>
+    <t>Chulalongkorn Academic into Its 2nd Century Project Advancement Project</t>
+  </si>
+  <si>
+    <t>FWF</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100007637</t>
+  </si>
+  <si>
+    <t>University of Malaya</t>
+  </si>
+  <si>
+    <t>NIH</t>
+  </si>
+  <si>
+    <t>Commissariat à l'Énergie Atomique et aux Énergies Alternatives</t>
+  </si>
+  <si>
+    <t>Centre National de la Recherche Scientifique</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100004281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonian Research Council via IUT23-4 and IUT23-6 </t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100002301</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100003510</t>
+  </si>
+  <si>
+    <t>Ministry of Education and Research</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100006588</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100003413</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100003549</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100006115</t>
+  </si>
+  <si>
+    <t>Institute for Research in Fundamental Studies</t>
+  </si>
+  <si>
+    <t>IPM</t>
+  </si>
+  <si>
+    <t>BMWFW (Bundesministerium für Wissenschaft, Forschung und Wirtschaft)</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>MEC</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>RPF</t>
+  </si>
+  <si>
+    <t>HIP</t>
+  </si>
+  <si>
+    <t>DAE</t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t>NSFC</t>
+  </si>
+  <si>
+    <t>FWO</t>
+  </si>
+  <si>
+    <t>FRS – FNRS</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>CNRS</t>
+  </si>
+  <si>
+    <t>GSRT</t>
+  </si>
+  <si>
+    <t>Institut National de Physique Nucléaire et de Physique des Particules</t>
+  </si>
+  <si>
+    <t>IN2P3</t>
+  </si>
+  <si>
+    <t>CEA</t>
+  </si>
+  <si>
+    <t>BMBF</t>
+  </si>
+  <si>
+    <t>Ministarstvo Znanosti, Obrazovanja i Sporta; MSES</t>
+  </si>
+  <si>
+    <t>Hrvatska Zaklada za Znanost; CSF</t>
+  </si>
+  <si>
+    <t>Haridus- ja Teadusministeerium; MoER</t>
+  </si>
+  <si>
+    <t>Eesti Teadusagentuur; ERC IUT</t>
+  </si>
+  <si>
+    <t>ERDF</t>
+  </si>
+  <si>
+    <t>DFG</t>
+  </si>
+  <si>
+    <t>SFI</t>
+  </si>
+  <si>
+    <t>HGF</t>
+  </si>
+  <si>
+    <t>INFN</t>
+  </si>
+  <si>
+    <t>MBIE</t>
+  </si>
+  <si>
+    <t>PAEC</t>
+  </si>
+  <si>
+    <t>Ministerstwo Nauki i Szkolnictwa Wyższego; MSHE</t>
+  </si>
+  <si>
+    <t>Narodowe Centrum Nauki; NSC</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>RFBR</t>
+  </si>
+  <si>
+    <t>RosAtom</t>
+  </si>
+  <si>
+    <t>MESTD</t>
+  </si>
+  <si>
+    <t>SEIDI</t>
+  </si>
+  <si>
+    <t>CPAN</t>
+  </si>
+  <si>
+    <t>Welch Foundation, contract C-1845</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100005992</t>
+  </si>
+  <si>
+    <t>CERN</t>
+  </si>
+  <si>
+    <t>CERN [Conseil Européen pour la Recherche Nucléaire]</t>
+  </si>
+  <si>
     <t>http://dx.doi.org/10.13039/501100003330</t>
   </si>
   <si>
-    <t>Secretaría de Estado de Investigación, Desarrollo e Innovación</t>
-  </si>
-  <si>
-    <t>ETH Board</t>
-  </si>
-  <si>
-    <t>ETH Zurich</t>
-  </si>
-  <si>
-    <t>PSI</t>
-  </si>
-  <si>
-    <t>SNF</t>
-  </si>
-  <si>
-    <t>UniZH</t>
-  </si>
-  <si>
-    <t>Canton Zurich</t>
-  </si>
-  <si>
-    <t>SER</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100003006</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100004742</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100000271</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/100000015</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100000781</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100004117</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/100000879</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/100005156</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100003134</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100003132</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100001870</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/100007388</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100003407</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100004895</t>
-  </si>
-  <si>
-    <t>National Priorities Research Program by Qatar National Research Fund</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>?Ministry of Higher Education, Malaysia</t>
-  </si>
-  <si>
-    <t>?Alexander von Humboldt-Stiftung</t>
-  </si>
-  <si>
-    <t>?Compagnia di San Paolo</t>
-  </si>
-  <si>
-    <t>European Social Fund doi only</t>
-  </si>
-  <si>
-    <t>Individual support</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>List order</t>
-  </si>
-  <si>
-    <t>ERC doi only</t>
-  </si>
-  <si>
-    <t>Conselho Nacional de Desenvolvimento Cientifico e Tecnelógica</t>
-  </si>
-  <si>
-    <t>Coordenação de Aperfeiçoamento de Pessoal de Nivel Superior</t>
-  </si>
-  <si>
-    <t>Fundação de Amparo à Pesquisa do Estado de São Paulo</t>
-  </si>
-  <si>
-    <t>Fundação de Amparo à Pesquisa do Estado de Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Departamento Administriva de Ciencia, Tecnología e Innovación</t>
-  </si>
-  <si>
-    <t>Consejo Nacional de Ciencia y Tecnología</t>
-  </si>
-  <si>
-    <t>Centro de Investigación y de Estudios Avanzados del Instituto Politécnico Nacional</t>
-  </si>
-  <si>
-    <t>Secretaría de Educación Pública</t>
-  </si>
-  <si>
-    <t>Universidad Autónoma de San Luis Potosí</t>
-  </si>
-  <si>
-    <t>Joint Institute for Nuclear Research</t>
-  </si>
-  <si>
-    <t>Eidgenössische Technische Hochschule (ETH) Zürich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Scherrer Institut </t>
-  </si>
-  <si>
-    <t>Swiss National Science Foundation</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100001711</t>
-  </si>
-  <si>
-    <t>State Secretariat for  Education and Research (Education, Research, and Innovation: SERI)</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Taipei</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/100000001</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100003725</t>
-  </si>
-  <si>
-    <t>National Research Foundation of Korea (NRF)</t>
-  </si>
-  <si>
-    <t>previously listed was WCU (World Class University)</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100002855</t>
-  </si>
-  <si>
-    <t>Universität Zürich</t>
-  </si>
-  <si>
-    <t>Welch Foundation</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/100000928</t>
-  </si>
-  <si>
-    <t>Rachadapisek Sompot Fund for Postdoctoral Fellowship, Chulalongkorn University (Thailand)</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.13039/501100002873</t>
+    <t>previously listed was MSIP, Ministry of Science, ICT, and Future Planning</t>
+  </si>
+  <si>
+    <t>Suomen Akatemia</t>
+  </si>
+  <si>
+    <t>OTKA (Országos Tudományos Kutatási Alapprogramok)</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100001409</t>
+  </si>
+  <si>
+    <t>BUAP</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100006348</t>
+  </si>
+  <si>
+    <t>Benemérita Universidad Autónoma de Puebla</t>
+  </si>
+  <si>
+    <t>Laboratorio Nacional de Supercómputo del Sureste</t>
+  </si>
+  <si>
+    <t>LNS</t>
+  </si>
+  <si>
+    <t>SENESCYT</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100004299</t>
+  </si>
+  <si>
+    <t>Secretaría de Educación Superior, Ciencia, Tecnología e Innovación</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100001656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Science Center, contracts Harmonia 2014/14/M/ST2/00428, Opus 2014/13/B/ST2/02543, 2014/15/B/ST2/03998, and 2015/19/B/ST2/02861, Sonata-bis 2012/07/E/ST2/01406 </t>
+  </si>
+  <si>
+    <t>Russian Competitiveness Program of National Research Nuclear University/ Moscow Engineering Physics Institute</t>
+  </si>
+  <si>
+    <t>PCTI</t>
+  </si>
+  <si>
+    <t>FEDER</t>
+  </si>
+  <si>
+    <t>Fondo Europeo de Desarrollo Regional, Spain</t>
+  </si>
+  <si>
+    <t>Plan de Ciencia, Tecnología e Innovación 2013-2017 del Principado de Asturias</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100008530</t>
+  </si>
+  <si>
+    <t>RAEP (Cyrillic; non-Cyrillic, NRNU MEPhI)</t>
+  </si>
+  <si>
+    <t>Council of Scientific and Industrial Research, India</t>
+  </si>
+  <si>
+    <t>LAS or Lietuvos Mokslų Akademija</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100008523</t>
+  </si>
+  <si>
+    <t>Ministerstvo Školství, Mládeže a Tělovýchovy</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100001823</t>
+  </si>
+  <si>
+    <t>Weston Havens Foundation</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100011223</t>
+  </si>
+  <si>
+    <t>Horizon 2020 Grant, contract No. 675440 (European Union)</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100010661</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100004663</t>
+  </si>
+  <si>
+    <t>Programa Severo Ochoa del Principado de Asturias</t>
+  </si>
+  <si>
+    <t>Corresponds to version r110 of the written acknowledgments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +936,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -701,17 +995,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -736,18 +1031,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -843,8 +1144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F95" totalsRowShown="0">
-  <autoFilter ref="A1:F95"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F106" totalsRowShown="0">
+  <autoFilter ref="A1:F106"/>
   <tableColumns count="6">
     <tableColumn id="7" name="List order"/>
     <tableColumn id="1" name="Name"/>
@@ -933,6 +1234,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -968,6 +1286,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1120,106 +1455,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F95"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.06640625" customWidth="1"/>
-    <col min="2" max="2" width="46.06640625" customWidth="1"/>
-    <col min="3" max="4" width="35.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="112.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="72.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="E2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1229,17 +1584,17 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1249,15 +1604,17 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1267,17 +1624,17 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1287,1329 +1644,1786 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="E10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>195</v>
+      <c r="D12" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
+      <c r="D13" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
+      <c r="D16" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>273</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" t="s">
-        <v>99</v>
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>59</v>
+      <c r="B27" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>60</v>
+      <c r="B28" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>152</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>152</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>153</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>154</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>155</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
+        <v>155</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" t="s">
-        <v>192</v>
+        <v>156</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" t="s">
-        <v>103</v>
+        <v>158</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>159</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>159</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
+        <v>160</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>161</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>82</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>82</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" t="s">
-        <v>110</v>
+        <v>82</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" t="s">
-        <v>113</v>
+        <v>164</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" t="s">
-        <v>115</v>
+        <v>165</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F55" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>166</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>166</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" t="s">
-        <v>165</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>167</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>168</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F65" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>168</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>186</v>
+        <v>169</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>110</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>169</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
-      </c>
-      <c r="D72" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
-      </c>
-      <c r="D75" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
+        <v>172</v>
+      </c>
+      <c r="E80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>1</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
         <v>28</v>
       </c>
-      <c r="E78" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="D90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
         <v>29</v>
       </c>
-      <c r="D79" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" t="s">
-        <v>148</v>
-      </c>
-      <c r="F79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="D91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="D92" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="E93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
         <v>32</v>
       </c>
-      <c r="D82" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" t="s">
-        <v>148</v>
-      </c>
-      <c r="F82" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>6</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="D95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
         <v>33</v>
       </c>
-      <c r="E83" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="D96" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E96" t="s">
+        <v>135</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>285</v>
+      </c>
+      <c r="E97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E99" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" t="s">
+        <v>135</v>
+      </c>
+      <c r="F100" t="s">
         <v>133</v>
       </c>
-      <c r="E84" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>8</v>
-      </c>
-      <c r="B85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>9</v>
-      </c>
-      <c r="B86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>10</v>
-      </c>
-      <c r="B87" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>11</v>
-      </c>
-      <c r="B88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" t="s">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" t="s">
         <v>135</v>
       </c>
-      <c r="E88" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>12</v>
-      </c>
-      <c r="B89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" t="s">
-        <v>148</v>
-      </c>
-      <c r="F89" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>39</v>
-      </c>
-      <c r="E90" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>14</v>
-      </c>
-      <c r="B91" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" t="s">
-        <v>137</v>
-      </c>
-      <c r="E91" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>15</v>
-      </c>
-      <c r="B92" t="s">
-        <v>41</v>
-      </c>
-      <c r="D92" t="s">
-        <v>138</v>
-      </c>
-      <c r="E92" t="s">
-        <v>148</v>
-      </c>
-      <c r="F92" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>16</v>
       </c>
-      <c r="B93" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94">
+      <c r="B102" t="s">
+        <v>295</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>17</v>
       </c>
-      <c r="B94" t="s">
-        <v>199</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="B103" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
         <v>200</v>
       </c>
-      <c r="E94" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95">
-        <v>18</v>
-      </c>
-      <c r="B95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" t="s">
-        <v>198</v>
-      </c>
-      <c r="E95" t="s">
-        <v>148</v>
+      <c r="D104" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E104" t="s">
+        <v>135</v>
+      </c>
+      <c r="F104" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>258</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>290</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1"/>
-    <hyperlink ref="D48" r:id="rId2"/>
-    <hyperlink ref="D51" r:id="rId3"/>
-    <hyperlink ref="D53" r:id="rId4"/>
-    <hyperlink ref="D56" r:id="rId5"/>
-    <hyperlink ref="D59" r:id="rId6"/>
-    <hyperlink ref="D74" r:id="rId7"/>
-    <hyperlink ref="D76" r:id="rId8"/>
-    <hyperlink ref="D80" r:id="rId9"/>
-    <hyperlink ref="D81" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D35" r:id="rId1"/>
+    <hyperlink ref="D54" r:id="rId2"/>
+    <hyperlink ref="D57" r:id="rId3"/>
+    <hyperlink ref="D59" r:id="rId4"/>
+    <hyperlink ref="D68" r:id="rId5"/>
+    <hyperlink ref="D83" r:id="rId6"/>
+    <hyperlink ref="D85" r:id="rId7"/>
+    <hyperlink ref="D90" r:id="rId8"/>
+    <hyperlink ref="D91" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D18" r:id="rId11"/>
+    <hyperlink ref="D100" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="D43" r:id="rId15"/>
+    <hyperlink ref="D63" r:id="rId16"/>
+    <hyperlink ref="D23" r:id="rId17"/>
+    <hyperlink ref="D36" r:id="rId18"/>
+    <hyperlink ref="D37" r:id="rId19"/>
+    <hyperlink ref="D38" r:id="rId20"/>
+    <hyperlink ref="D39" r:id="rId21"/>
+    <hyperlink ref="D40" r:id="rId22"/>
+    <hyperlink ref="D41" r:id="rId23"/>
+    <hyperlink ref="D47" r:id="rId24"/>
+    <hyperlink ref="D50" r:id="rId25"/>
+    <hyperlink ref="D53" r:id="rId26"/>
+    <hyperlink ref="D55" r:id="rId27"/>
+    <hyperlink ref="D56" r:id="rId28"/>
+    <hyperlink ref="D60" r:id="rId29"/>
+    <hyperlink ref="D62" r:id="rId30"/>
+    <hyperlink ref="D69" r:id="rId31"/>
+    <hyperlink ref="D70" r:id="rId32"/>
+    <hyperlink ref="D81" r:id="rId33"/>
+    <hyperlink ref="D84" r:id="rId34"/>
+    <hyperlink ref="D88" r:id="rId35"/>
+    <hyperlink ref="D92" r:id="rId36"/>
+    <hyperlink ref="D94" r:id="rId37"/>
+    <hyperlink ref="D95" r:id="rId38"/>
+    <hyperlink ref="D98" r:id="rId39"/>
+    <hyperlink ref="D99" r:id="rId40"/>
+    <hyperlink ref="D101" r:id="rId41"/>
+    <hyperlink ref="D103" r:id="rId42"/>
+    <hyperlink ref="D104" r:id="rId43"/>
+    <hyperlink ref="D105" r:id="rId44"/>
+    <hyperlink ref="D2" r:id="rId45"/>
+    <hyperlink ref="D3" r:id="rId46"/>
+    <hyperlink ref="D5" r:id="rId47"/>
+    <hyperlink ref="D6" r:id="rId48"/>
+    <hyperlink ref="D7" r:id="rId49"/>
+    <hyperlink ref="D8" r:id="rId50"/>
+    <hyperlink ref="D9" r:id="rId51"/>
+    <hyperlink ref="D10" r:id="rId52"/>
+    <hyperlink ref="D12" r:id="rId53"/>
+    <hyperlink ref="D14" r:id="rId54"/>
+    <hyperlink ref="D15" r:id="rId55"/>
+    <hyperlink ref="D17" r:id="rId56"/>
+    <hyperlink ref="D20" r:id="rId57"/>
+    <hyperlink ref="D21" r:id="rId58"/>
+    <hyperlink ref="D26" r:id="rId59"/>
+    <hyperlink ref="D28" r:id="rId60"/>
+    <hyperlink ref="D29" r:id="rId61"/>
+    <hyperlink ref="D30" r:id="rId62"/>
+    <hyperlink ref="D32" r:id="rId63"/>
+    <hyperlink ref="D33" r:id="rId64"/>
+    <hyperlink ref="D45" r:id="rId65"/>
+    <hyperlink ref="D31" r:id="rId66"/>
+    <hyperlink ref="D66" r:id="rId67"/>
+    <hyperlink ref="D96" r:id="rId68"/>
+    <hyperlink ref="D42" r:id="rId69"/>
+    <hyperlink ref="D74" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId12"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId71"/>
+  <drawing r:id="rId72"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId73"/>
   </tableParts>
 </worksheet>
 </file>
--- a/utils/trunk/general/CMS Funding agencies.xlsx
+++ b/utils/trunk/general/CMS Funding agencies.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tdr2\utils\trunk\general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galve\Documents\CMS\tdr2\utils\trunk\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11988" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11990" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Funding IDs" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="303">
   <si>
     <t>http://dx.doi.org/10.13039/501100002428</t>
   </si>
@@ -860,9 +860,6 @@
     <t xml:space="preserve">National Science Center, contracts Harmonia 2014/14/M/ST2/00428, Opus 2014/13/B/ST2/02543, 2014/15/B/ST2/03998, and 2015/19/B/ST2/02861, Sonata-bis 2012/07/E/ST2/01406 </t>
   </si>
   <si>
-    <t>Russian Competitiveness Program of National Research Nuclear University/ Moscow Engineering Physics Institute</t>
-  </si>
-  <si>
     <t>PCTI</t>
   </si>
   <si>
@@ -878,9 +875,6 @@
     <t>http://dx.doi.org/10.13039/501100008530</t>
   </si>
   <si>
-    <t>RAEP (Cyrillic; non-Cyrillic, NRNU MEPhI)</t>
-  </si>
-  <si>
     <t>Council of Scientific and Industrial Research, India</t>
   </si>
   <si>
@@ -914,14 +908,38 @@
     <t>Programa Severo Ochoa del Principado de Asturias</t>
   </si>
   <si>
-    <t>Corresponds to version r110 of the written acknowledgments</t>
+    <t xml:space="preserve">Belgian Fonds de la Recherche Scientifique, "Excellence of Science - EOS" - be.h project n. 30820817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgian Fonds voor Wetenschappelijk Onderzoek, "Excellence of Science - EOS" - be.h project n. 30820817 </t>
+  </si>
+  <si>
+    <t>Programa Estatal de Fomento de la Investigación Científica y Técnica de Excelencia María de Maeztu, grant MDM-2015-0509</t>
+  </si>
+  <si>
+    <t>New National Excellence Program ÚNKP, the NKFIA research grants 123842, 123959, 124845, 124850 and 125105</t>
+  </si>
+  <si>
+    <t>Lendúlet ("Momentum") Programme and the János Bolyai Research Scholarship of the Hungarian Academy of Sciences</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/501100003825</t>
+  </si>
+  <si>
+    <t>Magyar Tudományos Akadémia</t>
+  </si>
+  <si>
+    <t>Corresponds to version r119 of the written acknowledgments</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.13039/100012470</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,8 +1162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F106" totalsRowShown="0">
-  <autoFilter ref="A1:F106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F110" totalsRowShown="0">
+  <autoFilter ref="A1:F110"/>
   <tableColumns count="6">
     <tableColumn id="7" name="List order"/>
     <tableColumn id="1" name="Name"/>
@@ -1458,23 +1476,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="112.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="112.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="72.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -1494,7 +1512,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1514,7 +1532,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1534,7 +1552,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1554,7 +1572,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1574,7 +1592,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1614,7 +1632,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1674,7 +1692,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1684,7 +1702,9 @@
       <c r="C11" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="E11" t="s">
         <v>136</v>
       </c>
@@ -1692,7 +1712,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1712,7 +1732,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1732,7 +1752,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1752,7 +1772,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1772,7 +1792,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1792,7 +1812,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1812,7 +1832,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1832,7 +1852,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1852,7 +1872,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1872,7 +1892,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1892,7 +1912,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1909,7 +1929,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1929,7 +1949,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1946,7 +1966,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1963,7 +1983,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1983,7 +2003,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2003,7 +2023,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2020,7 +2040,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2040,7 +2060,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2060,7 +2080,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2080,7 +2100,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2100,7 +2120,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2120,7 +2140,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2137,7 +2157,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2157,7 +2177,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2177,7 +2197,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2197,7 +2217,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2217,7 +2237,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2237,7 +2257,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2257,7 +2277,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2288,16 +2308,16 @@
         <v>160</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E42" t="s">
         <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2317,7 +2337,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2331,7 +2351,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2351,7 +2371,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2368,7 +2388,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2388,7 +2408,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2406,7 +2426,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2423,7 +2443,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2443,7 +2463,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2460,7 +2480,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2477,7 +2497,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2497,7 +2517,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2517,7 +2537,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2537,7 +2557,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2557,7 +2577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2577,7 +2597,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2594,7 +2614,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2614,7 +2634,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2634,70 +2654,69 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E61" t="s">
         <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="E62" t="s">
         <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E63" t="s">
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
         <v>168</v>
@@ -2706,19 +2725,22 @@
         <v>136</v>
       </c>
       <c r="F64" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C65" t="s">
         <v>168</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E65" t="s">
         <v>136</v>
       </c>
@@ -2726,106 +2748,103 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="E66" t="s">
         <v>136</v>
       </c>
-      <c r="F66" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
         <v>169</v>
       </c>
+      <c r="D67" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E67" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
         <v>169</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="E68" t="s">
         <v>136</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
         <v>169</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
         <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
         <v>169</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E70" t="s">
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
         <v>169</v>
@@ -2833,16 +2852,13 @@
       <c r="E71" t="s">
         <v>136</v>
       </c>
-      <c r="F71" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
         <v>169</v>
@@ -2850,47 +2866,47 @@
       <c r="E72" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="E73" t="s">
         <v>136</v>
       </c>
-      <c r="F73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="E74" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
         <v>171</v>
@@ -2899,12 +2915,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
         <v>171</v>
@@ -2913,12 +2929,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
         <v>171</v>
@@ -2927,26 +2943,26 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>172</v>
@@ -2955,395 +2971,469 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="E80" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="E81" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
         <v>175</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="E84" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>175</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E85" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E87" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="E88" t="s">
         <v>135</v>
       </c>
-      <c r="F88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c r="E89" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E90" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E91" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
         <v>135</v>
       </c>
-      <c r="F92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>87</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E93" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E94" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>124</v>
+        <v>294</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="F95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="E96" t="s">
         <v>135</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>33</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="E97" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F97" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>298</v>
+      </c>
+      <c r="C98" t="s">
+        <v>154</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="E98" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F98" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>164</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E99" t="s">
-        <v>135</v>
-      </c>
-      <c r="F99" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="E100" t="s">
         <v>135</v>
       </c>
-      <c r="F100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
-      </c>
-      <c r="D102" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="C102" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E102" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E103" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>200</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E104" t="s">
-        <v>135</v>
-      </c>
-      <c r="F104" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>258</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D105" s="1"/>
       <c r="E105" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>22</v>
+      </c>
+      <c r="B107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>23</v>
+      </c>
       <c r="B108" t="s">
-        <v>296</v>
+        <v>200</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E108" t="s">
+        <v>135</v>
+      </c>
+      <c r="F108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>24</v>
+      </c>
+      <c r="B109" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>25</v>
+      </c>
+      <c r="B110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="B112" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3352,18 +3442,18 @@
     <hyperlink ref="D54" r:id="rId2"/>
     <hyperlink ref="D57" r:id="rId3"/>
     <hyperlink ref="D59" r:id="rId4"/>
-    <hyperlink ref="D68" r:id="rId5"/>
-    <hyperlink ref="D83" r:id="rId6"/>
-    <hyperlink ref="D85" r:id="rId7"/>
-    <hyperlink ref="D90" r:id="rId8"/>
-    <hyperlink ref="D91" r:id="rId9"/>
+    <hyperlink ref="D67" r:id="rId5"/>
+    <hyperlink ref="D82" r:id="rId6"/>
+    <hyperlink ref="D84" r:id="rId7"/>
+    <hyperlink ref="D89" r:id="rId8"/>
+    <hyperlink ref="D90" r:id="rId9"/>
     <hyperlink ref="D13" r:id="rId10"/>
     <hyperlink ref="D18" r:id="rId11"/>
-    <hyperlink ref="D100" r:id="rId12"/>
+    <hyperlink ref="D106" r:id="rId12"/>
     <hyperlink ref="D4" r:id="rId13"/>
     <hyperlink ref="D16" r:id="rId14"/>
     <hyperlink ref="D43" r:id="rId15"/>
-    <hyperlink ref="D63" r:id="rId16"/>
+    <hyperlink ref="D62" r:id="rId16"/>
     <hyperlink ref="D23" r:id="rId17"/>
     <hyperlink ref="D36" r:id="rId18"/>
     <hyperlink ref="D37" r:id="rId19"/>
@@ -3377,21 +3467,21 @@
     <hyperlink ref="D55" r:id="rId27"/>
     <hyperlink ref="D56" r:id="rId28"/>
     <hyperlink ref="D60" r:id="rId29"/>
-    <hyperlink ref="D62" r:id="rId30"/>
-    <hyperlink ref="D69" r:id="rId31"/>
-    <hyperlink ref="D70" r:id="rId32"/>
-    <hyperlink ref="D81" r:id="rId33"/>
-    <hyperlink ref="D84" r:id="rId34"/>
-    <hyperlink ref="D88" r:id="rId35"/>
-    <hyperlink ref="D92" r:id="rId36"/>
-    <hyperlink ref="D94" r:id="rId37"/>
-    <hyperlink ref="D95" r:id="rId38"/>
-    <hyperlink ref="D98" r:id="rId39"/>
-    <hyperlink ref="D99" r:id="rId40"/>
-    <hyperlink ref="D101" r:id="rId41"/>
-    <hyperlink ref="D103" r:id="rId42"/>
-    <hyperlink ref="D104" r:id="rId43"/>
-    <hyperlink ref="D105" r:id="rId44"/>
+    <hyperlink ref="D61" r:id="rId30"/>
+    <hyperlink ref="D68" r:id="rId31"/>
+    <hyperlink ref="D69" r:id="rId32"/>
+    <hyperlink ref="D80" r:id="rId33"/>
+    <hyperlink ref="D83" r:id="rId34"/>
+    <hyperlink ref="D87" r:id="rId35"/>
+    <hyperlink ref="D91" r:id="rId36"/>
+    <hyperlink ref="D93" r:id="rId37"/>
+    <hyperlink ref="D94" r:id="rId38"/>
+    <hyperlink ref="D101" r:id="rId39"/>
+    <hyperlink ref="D102" r:id="rId40"/>
+    <hyperlink ref="D103" r:id="rId41"/>
+    <hyperlink ref="D107" r:id="rId42"/>
+    <hyperlink ref="D108" r:id="rId43"/>
+    <hyperlink ref="D109" r:id="rId44"/>
     <hyperlink ref="D2" r:id="rId45"/>
     <hyperlink ref="D3" r:id="rId46"/>
     <hyperlink ref="D5" r:id="rId47"/>
@@ -3414,16 +3504,18 @@
     <hyperlink ref="D33" r:id="rId64"/>
     <hyperlink ref="D45" r:id="rId65"/>
     <hyperlink ref="D31" r:id="rId66"/>
-    <hyperlink ref="D66" r:id="rId67"/>
-    <hyperlink ref="D96" r:id="rId68"/>
+    <hyperlink ref="D65" r:id="rId67"/>
+    <hyperlink ref="D97" r:id="rId68"/>
     <hyperlink ref="D42" r:id="rId69"/>
-    <hyperlink ref="D74" r:id="rId70"/>
+    <hyperlink ref="D73" r:id="rId70"/>
+    <hyperlink ref="D95" r:id="rId71"/>
+    <hyperlink ref="D96" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId71"/>
-  <drawing r:id="rId72"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId73"/>
+  <drawing r:id="rId74"/>
   <tableParts count="1">
-    <tablePart r:id="rId73"/>
+    <tablePart r:id="rId75"/>
   </tableParts>
 </worksheet>
 </file>